--- a/database/controle_dispensa.xlsx
+++ b/database/controle_dispensa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/63fbdbda17b5124d/Área de Trabalho/PyQt6/database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/63fbdbda17b5124d/Área de Trabalho/Programa git/pyqt6/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{94FB9287-5AF3-4948-AB82-6A6383C37C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{4D189F6E-D581-457A-BC33-50A47E1F1E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B839B5D-73D2-40AF-B842-0155FBEF3053}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="45">
   <si>
     <t>mod</t>
   </si>
@@ -73,9 +73,6 @@
     <t>ASD</t>
   </si>
   <si>
-    <t>Sessão Pública</t>
-  </si>
-  <si>
     <t>62055.002424/2023-25</t>
   </si>
   <si>
@@ -109,18 +106,12 @@
     <t>62055.002463/2023-22</t>
   </si>
   <si>
-    <t>CJACM</t>
-  </si>
-  <si>
     <t>62055.009367/2023-13</t>
   </si>
   <si>
     <t>PDU</t>
   </si>
   <si>
-    <t>Edital</t>
-  </si>
-  <si>
     <t>62055.010878/2023-70</t>
   </si>
   <si>
@@ -158,6 +149,12 @@
   </si>
   <si>
     <t>DE</t>
+  </si>
+  <si>
+    <t>TJIL</t>
+  </si>
+  <si>
+    <t>TJDL</t>
   </si>
 </sst>
 </file>
@@ -526,13 +523,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30" customWidth="1"/>
+    <col min="8" max="8" width="24.44140625" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -574,7 +578,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -586,7 +590,7 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F2">
         <v>787010</v>
@@ -604,12 +608,12 @@
         <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -618,33 +622,33 @@
         <v>2023</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F3">
         <v>787310</v>
       </c>
       <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
         <v>16</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -653,33 +657,33 @@
         <v>2023</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F4">
         <v>787000</v>
       </c>
       <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>23</v>
-      </c>
-      <c r="I4" t="s">
-        <v>24</v>
       </c>
       <c r="J4" t="s">
         <v>16</v>
       </c>
       <c r="K4" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -688,33 +692,33 @@
         <v>2023</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F5">
         <v>787200</v>
       </c>
       <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
         <v>26</v>
       </c>
-      <c r="H5" t="s">
-        <v>27</v>
-      </c>
       <c r="I5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J5" t="s">
         <v>16</v>
       </c>
       <c r="K5" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -723,33 +727,33 @@
         <v>2024</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F6">
         <v>787200</v>
       </c>
       <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
         <v>26</v>
       </c>
-      <c r="H6" t="s">
-        <v>27</v>
-      </c>
       <c r="I6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J6" t="s">
         <v>16</v>
       </c>
       <c r="K6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -758,10 +762,10 @@
         <v>2024</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F7">
         <v>787010</v>
@@ -773,18 +777,18 @@
         <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J7" t="s">
         <v>16</v>
       </c>
       <c r="K7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -793,33 +797,33 @@
         <v>2024</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F8">
         <v>787000</v>
       </c>
       <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="s">
         <v>22</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>23</v>
-      </c>
-      <c r="I8" t="s">
-        <v>24</v>
       </c>
       <c r="J8" t="s">
         <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -828,28 +832,98 @@
         <v>2024</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F9">
         <v>787000</v>
       </c>
       <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s">
         <v>22</v>
       </c>
-      <c r="H9" t="s">
-        <v>23</v>
-      </c>
       <c r="I9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J9" t="s">
         <v>16</v>
       </c>
       <c r="K9" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>2024</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10">
+        <v>787000</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>2024</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11">
+        <v>787000</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
